--- a/paper/Appendix 1.xlsx
+++ b/paper/Appendix 1.xlsx
@@ -759,7 +759,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Weight loss @V0</t>
+          <t>Weight loss, acute COVID-19</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Dyspnea @V0</t>
+          <t>Dyspnea, acute COVID-19</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cough @V0</t>
+          <t>Cough, acute COVID-19</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -830,7 +830,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fever @V0</t>
+          <t>Fever, acute COVID-19</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Night sweat @V0</t>
+          <t>Night sweat, acute COVID-19</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Pain @V0</t>
+          <t>Pain, acute COVID-19</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>GI symptoms @V0</t>
+          <t>GI symptoms, acute COVID-19</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Anosmia @V0</t>
+          <t>Anosmia, acute COVID-19</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Impaired performance @V0</t>
+          <t>Impaired performance, acute COVID-19</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Sleep disorders @V0</t>
+          <t>Sleep disorders, acute COVID-19</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Anti-infectives @V0</t>
+          <t>Anti-infectives, acute COVID-19</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Anti-platelet @V0</t>
+          <t>Anti-platelet, acute COVID-19</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Anti-coagulatives @V0</t>
+          <t>Anti-coagulatives, acute COVID-19</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Immunosuppression @V0</t>
+          <t>Immunosuppression, acute COVID-19</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Anemia @V1</t>
+          <t>Anemia, 60-day visit</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Elevated ferritin @V1</t>
+          <t>Elevated ferritin, 60-day visit</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Elevated NTproBNP @V1</t>
+          <t>Elevated NTproBNP, 60-day visit</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Elevated D-dimer @V1</t>
+          <t>Elevated D-dimer, 60-day visit</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Elevated CRP @V1</t>
+          <t>Elevated CRP, 60-day visit</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Elevated IL-6 @V1</t>
+          <t>Elevated IL-6, 60-day visit</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Iron deficiency @V1</t>
+          <t>Iron deficiency, 60-day visit</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Hospitalized &gt;7 days @V0</t>
+          <t>Hospitalized &gt;7 days, acute COVID-19</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>&gt;6 symptoms @V0</t>
+          <t>&gt;6 symptoms, acute COVID-19</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Persistent symptoms @V1</t>
+          <t>Persistent symptoms, 60-day visit</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>&gt; 0 symptoms @V3</t>
+          <t>&gt; 0 symptoms at 180-day visit</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Anti-S1/S2 IgG Q1 @V1</t>
+          <t>Anti-S1/S2 IgG Q1, 60-day visit</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Anti-S1/S2 IgG Q2 @V1</t>
+          <t>Anti-S1/S2 IgG Q2, 60-day visit</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Anti-S1/S2 IgG Q3 @V1</t>
+          <t>Anti-S1/S2 IgG Q3, 60-day visit</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Anti-S1/S2 IgG Q4 @V1</t>
+          <t>Anti-S1/S2 IgG Q4, 60-day visit</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Ambulatory @V0</t>
+          <t>Ambulatory, acute COVID-19</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Hospitalized @V0</t>
+          <t>Hospitalized, acute COVID-19</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Oxygen therapy @V0</t>
+          <t>Oxygen therapy, acute COVID-19</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ICU @V0</t>
+          <t>ICU, acute COVID-19</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 1 – 5</t>
+          <t>CT Severity Score 1-5 at 180-day visit</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1796,7 +1796,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1828,7 +1828,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1860,7 +1860,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1892,7 +1892,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1924,7 +1924,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1956,7 +1956,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1988,7 +1988,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2020,7 +2020,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2052,7 +2052,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2084,7 +2084,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2116,7 +2116,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2148,7 +2148,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2212,7 +2212,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2244,7 +2244,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2276,17 +2276,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Weight loss @V0, n = 84</t>
+          <t>Weight loss, acute COVID-19, n = 84</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>no weight loss @V0, n = 34</t>
+          <t>no weight loss, acute COVID-19, n = 34</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2308,17 +2308,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dyspnea @V0, n = 81</t>
+          <t>Dyspnea, acute COVID-19, n = 81</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>no dyspnea @V0, n = 37</t>
+          <t>no dyspnea, acute COVID-19, n = 37</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2340,17 +2340,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cough @V0, n = 83</t>
+          <t>Cough, acute COVID-19, n = 83</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>no cough @V0, n = 35</t>
+          <t>no cough, acute COVID-19, n = 35</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2372,17 +2372,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Fever @V0, n = 83</t>
+          <t>Fever, acute COVID-19, n = 83</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>no fever @V0, n = 35</t>
+          <t>no fever, acute COVID-19, n = 35</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2404,17 +2404,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Night sweat @V0, n = 74</t>
+          <t>Night sweat, acute COVID-19, n = 74</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>no night sweat @V0, n = 44</t>
+          <t>no night sweat, acute COVID-19, n = 44</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2436,17 +2436,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Pain @V0, n = 65</t>
+          <t>Pain, acute COVID-19, n = 65</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>no pain @V0, n = 53</t>
+          <t>no pain, acute COVID-19, n = 53</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2468,17 +2468,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>GI symptoms @V0, n = 47</t>
+          <t>GI symptoms, acute COVID-19, n = 47</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>no gI symptoms @V0, n = 71</t>
+          <t>no gI symptoms, acute COVID-19, n = 71</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2500,17 +2500,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Anosmia @V0, n = 53</t>
+          <t>Anosmia, acute COVID-19, n = 53</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>no anosmia @V0, n = 65</t>
+          <t>no anosmia, acute COVID-19, n = 65</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2532,17 +2532,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Impaired performance @V0, n = 106</t>
+          <t>Impaired performance, acute COVID-19, n = 106</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>no impaired performance @V0, n = 12</t>
+          <t>no impaired performance, acute COVID-19, n = 12</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2564,17 +2564,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sleep disorders @V0, n = 40</t>
+          <t>Sleep disorders, acute COVID-19, n = 40</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>no sleep disorders @V0, n = 77</t>
+          <t>no sleep disorders, acute COVID-19, n = 77</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2596,17 +2596,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Anti-infectives @V0, n = 64</t>
+          <t>Anti-infectives, acute COVID-19, n = 64</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>no anti-infectives @V0, n = 54</t>
+          <t>no anti-infectives, acute COVID-19, n = 54</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2628,17 +2628,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Anti-platelet @V0, n = 12</t>
+          <t>Anti-platelet, acute COVID-19, n = 12</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>no anti-platelet @V0, n = 106</t>
+          <t>no anti-platelet, acute COVID-19, n = 106</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2660,17 +2660,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Anti-coagulatives @V0, n = 4</t>
+          <t>Anti-coagulatives, acute COVID-19, n = 4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>no anti-coagulatives @V0, n = 114</t>
+          <t>no anti-coagulatives, acute COVID-19, n = 114</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2692,17 +2692,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Immunosuppression @V0, n = 20</t>
+          <t>Immunosuppression, acute COVID-19, n = 20</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>no immunosuppression @V0, n = 98</t>
+          <t>no immunosuppression, acute COVID-19, n = 98</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2724,17 +2724,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Anemia @V1, n = 10</t>
+          <t>Anemia, 60-day visit, n = 10</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>no anemia @V1, n = 108</t>
+          <t>no anemia, 60-day visit, n = 108</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2756,17 +2756,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Elevated ferritin @V1, n = 20</t>
+          <t>Elevated ferritin, 60-day visit, n = 20</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>no elevated ferritin @V1, n = 98</t>
+          <t>no elevated ferritin, 60-day visit, n = 98</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2788,17 +2788,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Elevated NTproBNP @V1, n = 38</t>
+          <t>Elevated NTproBNP, 60-day visit, n = 38</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>no elevated NTproBNP @V1, n = 80</t>
+          <t>no elevated NTproBNP, 60-day visit, n = 80</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2820,17 +2820,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Elevated D-dimer @V1, n = 49</t>
+          <t>Elevated D-dimer, 60-day visit, n = 49</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>no elevated D-dimer @V1, n = 69</t>
+          <t>no elevated D-dimer, 60-day visit, n = 69</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2852,17 +2852,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Elevated CRP @V1, n = 18</t>
+          <t>Elevated CRP, 60-day visit, n = 18</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>no elevated CRP @V1, n = 100</t>
+          <t>no elevated CRP, 60-day visit, n = 100</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2884,17 +2884,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Elevated IL-6 @V1, n = 11</t>
+          <t>Elevated IL-6, 60-day visit, n = 11</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>no elevated IL-6 @V1, n = 107</t>
+          <t>no elevated IL-6, 60-day visit, n = 107</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2916,17 +2916,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Iron deficiency @V1, n = 6</t>
+          <t>Iron deficiency, 60-day visit, n = 6</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>no iron deficiency @V1, n = 112</t>
+          <t>no iron deficiency, 60-day visit, n = 112</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2948,7 +2948,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2980,17 +2980,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Hospitalized &gt;7 days @V0, n = 59</t>
+          <t>Hospitalized &gt;7 days, acute COVID-19, n = 59</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>no hospitalized &gt;7 days @V0, n = 59</t>
+          <t>no hospitalized &gt;7 days, acute COVID-19, n = 59</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3012,7 +3012,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3044,7 +3044,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3076,7 +3076,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3108,17 +3108,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>&gt;6 symptoms @V0, n = 33</t>
+          <t>&gt;6 symptoms, acute COVID-19, n = 33</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>no &gt;6 symptoms @V0, n = 85</t>
+          <t>no &gt;6 symptoms, acute COVID-19, n = 85</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3140,17 +3140,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Persistent symptoms @V1, n = 93</t>
+          <t>Persistent symptoms, 60-day visit, n = 93</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>no persistent symptoms @V1, n = 25</t>
+          <t>no persistent symptoms, 60-day visit, n = 25</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3172,17 +3172,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Anti-S1/S2 IgG Q1 @V1, n = 31</t>
+          <t>Anti-S1/S2 IgG Q1, 60-day visit, n = 31</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>no anti-S1/S2 IgG Q1 @V1, n = 79</t>
+          <t>no anti-S1/S2 IgG Q1, 60-day visit, n = 79</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3204,17 +3204,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Anti-S1/S2 IgG Q2 @V1, n = 30</t>
+          <t>Anti-S1/S2 IgG Q2, 60-day visit, n = 30</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>no anti-S1/S2 IgG Q2 @V1, n = 80</t>
+          <t>no anti-S1/S2 IgG Q2, 60-day visit, n = 80</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3236,17 +3236,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Anti-S1/S2 IgG Q3 @V1, n = 27</t>
+          <t>Anti-S1/S2 IgG Q3, 60-day visit, n = 27</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>no anti-S1/S2 IgG Q3 @V1, n = 83</t>
+          <t>no anti-S1/S2 IgG Q3, 60-day visit, n = 83</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3268,17 +3268,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Anti-S1/S2 IgG Q4 @V1, n = 22</t>
+          <t>Anti-S1/S2 IgG Q4, 60-day visit, n = 22</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>no anti-S1/S2 IgG Q4 @V1, n = 88</t>
+          <t>no anti-S1/S2 IgG Q4, 60-day visit, n = 88</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3300,17 +3300,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ambulatory @V0, n = 33</t>
+          <t>Ambulatory, acute COVID-19, n = 33</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>no ambulatory @V0, n = 85</t>
+          <t>no ambulatory, acute COVID-19, n = 85</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3332,17 +3332,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Hospitalized @V0, n = 33</t>
+          <t>Hospitalized, acute COVID-19, n = 33</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>no hospitalized @V0, n = 85</t>
+          <t>no hospitalized, acute COVID-19, n = 85</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3364,17 +3364,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Oxygen therapy @V0, n = 33</t>
+          <t>Oxygen therapy, acute COVID-19, n = 33</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>no oxygen therapy @V0, n = 85</t>
+          <t>no oxygen therapy, acute COVID-19, n = 85</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3396,17 +3396,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ICU @V0, n = 19</t>
+          <t>ICU, acute COVID-19, n = 19</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>no iCU @V0, n = 99</t>
+          <t>no iCU, acute COVID-19, n = 99</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3428,7 +3428,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3460,7 +3460,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3492,7 +3492,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3524,7 +3524,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3556,7 +3556,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3588,7 +3588,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3620,7 +3620,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3652,7 +3652,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3684,7 +3684,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3716,7 +3716,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3748,7 +3748,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3780,7 +3780,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3812,7 +3812,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3844,7 +3844,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3876,7 +3876,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3908,7 +3908,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3940,17 +3940,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Weight loss @V0, n = 84</t>
+          <t>Weight loss, acute COVID-19, n = 84</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>no weight loss @V0, n = 34</t>
+          <t>no weight loss, acute COVID-19, n = 34</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3972,17 +3972,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Dyspnea @V0, n = 81</t>
+          <t>Dyspnea, acute COVID-19, n = 81</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>no dyspnea @V0, n = 37</t>
+          <t>no dyspnea, acute COVID-19, n = 37</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -4004,17 +4004,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Cough @V0, n = 83</t>
+          <t>Cough, acute COVID-19, n = 83</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>no cough @V0, n = 35</t>
+          <t>no cough, acute COVID-19, n = 35</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -4036,17 +4036,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Fever @V0, n = 83</t>
+          <t>Fever, acute COVID-19, n = 83</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>no fever @V0, n = 35</t>
+          <t>no fever, acute COVID-19, n = 35</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -4068,17 +4068,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Night sweat @V0, n = 74</t>
+          <t>Night sweat, acute COVID-19, n = 74</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>no night sweat @V0, n = 44</t>
+          <t>no night sweat, acute COVID-19, n = 44</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -4100,17 +4100,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Pain @V0, n = 65</t>
+          <t>Pain, acute COVID-19, n = 65</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>no pain @V0, n = 53</t>
+          <t>no pain, acute COVID-19, n = 53</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -4132,17 +4132,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>GI symptoms @V0, n = 47</t>
+          <t>GI symptoms, acute COVID-19, n = 47</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>no gI symptoms @V0, n = 71</t>
+          <t>no gI symptoms, acute COVID-19, n = 71</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -4164,17 +4164,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Anosmia @V0, n = 53</t>
+          <t>Anosmia, acute COVID-19, n = 53</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>no anosmia @V0, n = 65</t>
+          <t>no anosmia, acute COVID-19, n = 65</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -4196,17 +4196,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Impaired performance @V0, n = 106</t>
+          <t>Impaired performance, acute COVID-19, n = 106</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>no impaired performance @V0, n = 12</t>
+          <t>no impaired performance, acute COVID-19, n = 12</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -4228,17 +4228,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Sleep disorders @V0, n = 40</t>
+          <t>Sleep disorders, acute COVID-19, n = 40</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>no sleep disorders @V0, n = 77</t>
+          <t>no sleep disorders, acute COVID-19, n = 77</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -4260,17 +4260,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Anti-infectives @V0, n = 64</t>
+          <t>Anti-infectives, acute COVID-19, n = 64</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>no anti-infectives @V0, n = 54</t>
+          <t>no anti-infectives, acute COVID-19, n = 54</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4292,17 +4292,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Anti-platelet @V0, n = 12</t>
+          <t>Anti-platelet, acute COVID-19, n = 12</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>no anti-platelet @V0, n = 106</t>
+          <t>no anti-platelet, acute COVID-19, n = 106</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4324,17 +4324,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Anti-coagulatives @V0, n = 4</t>
+          <t>Anti-coagulatives, acute COVID-19, n = 4</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>no anti-coagulatives @V0, n = 114</t>
+          <t>no anti-coagulatives, acute COVID-19, n = 114</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4356,17 +4356,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Immunosuppression @V0, n = 20</t>
+          <t>Immunosuppression, acute COVID-19, n = 20</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>no immunosuppression @V0, n = 98</t>
+          <t>no immunosuppression, acute COVID-19, n = 98</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -4388,17 +4388,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Anemia @V1, n = 10</t>
+          <t>Anemia, 60-day visit, n = 10</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>no anemia @V1, n = 108</t>
+          <t>no anemia, 60-day visit, n = 108</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4420,17 +4420,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Elevated ferritin @V1, n = 20</t>
+          <t>Elevated ferritin, 60-day visit, n = 20</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>no elevated ferritin @V1, n = 98</t>
+          <t>no elevated ferritin, 60-day visit, n = 98</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4452,17 +4452,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Elevated NTproBNP @V1, n = 38</t>
+          <t>Elevated NTproBNP, 60-day visit, n = 38</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>no elevated NTproBNP @V1, n = 80</t>
+          <t>no elevated NTproBNP, 60-day visit, n = 80</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4484,17 +4484,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Elevated D-dimer @V1, n = 49</t>
+          <t>Elevated D-dimer, 60-day visit, n = 49</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>no elevated D-dimer @V1, n = 69</t>
+          <t>no elevated D-dimer, 60-day visit, n = 69</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4516,17 +4516,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Elevated CRP @V1, n = 18</t>
+          <t>Elevated CRP, 60-day visit, n = 18</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>no elevated CRP @V1, n = 100</t>
+          <t>no elevated CRP, 60-day visit, n = 100</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4548,17 +4548,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Elevated IL-6 @V1, n = 11</t>
+          <t>Elevated IL-6, 60-day visit, n = 11</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>no elevated IL-6 @V1, n = 107</t>
+          <t>no elevated IL-6, 60-day visit, n = 107</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4580,17 +4580,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Iron deficiency @V1, n = 6</t>
+          <t>Iron deficiency, 60-day visit, n = 6</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>no iron deficiency @V1, n = 112</t>
+          <t>no iron deficiency, 60-day visit, n = 112</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4612,7 +4612,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4644,17 +4644,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Hospitalized &gt;7 days @V0, n = 59</t>
+          <t>Hospitalized &gt;7 days, acute COVID-19, n = 59</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>no hospitalized &gt;7 days @V0, n = 59</t>
+          <t>no hospitalized &gt;7 days, acute COVID-19, n = 59</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4676,7 +4676,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4708,7 +4708,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4740,7 +4740,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4772,17 +4772,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>&gt;6 symptoms @V0, n = 33</t>
+          <t>&gt;6 symptoms, acute COVID-19, n = 33</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>no &gt;6 symptoms @V0, n = 85</t>
+          <t>no &gt;6 symptoms, acute COVID-19, n = 85</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4804,17 +4804,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Persistent symptoms @V1, n = 93</t>
+          <t>Persistent symptoms, 60-day visit, n = 93</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>no persistent symptoms @V1, n = 25</t>
+          <t>no persistent symptoms, 60-day visit, n = 25</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4836,17 +4836,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Anti-S1/S2 IgG Q2 @V1, n = 30</t>
+          <t>Anti-S1/S2 IgG Q2, 60-day visit, n = 30</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>no anti-S1/S2 IgG Q2 @V1, n = 80</t>
+          <t>no anti-S1/S2 IgG Q2, 60-day visit, n = 80</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4868,17 +4868,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Anti-S1/S2 IgG Q3 @V1, n = 27</t>
+          <t>Anti-S1/S2 IgG Q3, 60-day visit, n = 27</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>no anti-S1/S2 IgG Q3 @V1, n = 83</t>
+          <t>no anti-S1/S2 IgG Q3, 60-day visit, n = 83</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4900,17 +4900,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Anti-S1/S2 IgG Q4 @V1, n = 22</t>
+          <t>Anti-S1/S2 IgG Q4, 60-day visit, n = 22</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>no anti-S1/S2 IgG Q4 @V1, n = 88</t>
+          <t>no anti-S1/S2 IgG Q4, 60-day visit, n = 88</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4932,17 +4932,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Ambulatory @V0, n = 33</t>
+          <t>Ambulatory, acute COVID-19, n = 33</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>no ambulatory @V0, n = 85</t>
+          <t>no ambulatory, acute COVID-19, n = 85</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4964,17 +4964,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Hospitalized @V0, n = 33</t>
+          <t>Hospitalized, acute COVID-19, n = 33</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>no hospitalized @V0, n = 85</t>
+          <t>no hospitalized, acute COVID-19, n = 85</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4996,17 +4996,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Oxygen therapy @V0, n = 33</t>
+          <t>Oxygen therapy, acute COVID-19, n = 33</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>no oxygen therapy @V0, n = 85</t>
+          <t>no oxygen therapy, acute COVID-19, n = 85</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -5028,17 +5028,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ICU @V0, n = 19</t>
+          <t>ICU, acute COVID-19, n = 19</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>no iCU @V0, n = 99</t>
+          <t>no iCU, acute COVID-19, n = 99</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -5060,7 +5060,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5092,7 +5092,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5124,7 +5124,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5156,7 +5156,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5188,7 +5188,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5220,7 +5220,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -5252,7 +5252,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5284,7 +5284,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5316,7 +5316,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5348,7 +5348,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5380,7 +5380,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5412,7 +5412,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -5444,7 +5444,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -5476,7 +5476,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -5508,7 +5508,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -5540,7 +5540,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5572,17 +5572,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Weight loss @V0, n = 106</t>
+          <t>Weight loss, acute COVID-19, n = 106</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>no weight loss @V0, n = 39</t>
+          <t>no weight loss, acute COVID-19, n = 39</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5604,17 +5604,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Dyspnea @V0, n = 98</t>
+          <t>Dyspnea, acute COVID-19, n = 98</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>no dyspnea @V0, n = 47</t>
+          <t>no dyspnea, acute COVID-19, n = 47</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5636,17 +5636,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Cough @V0, n = 102</t>
+          <t>Cough, acute COVID-19, n = 102</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>no cough @V0, n = 43</t>
+          <t>no cough, acute COVID-19, n = 43</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5668,17 +5668,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Fever @V0, n = 106</t>
+          <t>Fever, acute COVID-19, n = 106</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>no fever @V0, n = 39</t>
+          <t>no fever, acute COVID-19, n = 39</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5700,17 +5700,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Night sweat @V0, n = 92</t>
+          <t>Night sweat, acute COVID-19, n = 92</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>no night sweat @V0, n = 53</t>
+          <t>no night sweat, acute COVID-19, n = 53</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5732,17 +5732,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Pain @V0, n = 78</t>
+          <t>Pain, acute COVID-19, n = 78</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>no pain @V0, n = 67</t>
+          <t>no pain, acute COVID-19, n = 67</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5764,17 +5764,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>GI symptoms @V0, n = 59</t>
+          <t>GI symptoms, acute COVID-19, n = 59</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>no gI symptoms @V0, n = 86</t>
+          <t>no gI symptoms, acute COVID-19, n = 86</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5796,17 +5796,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Anosmia @V0, n = 62</t>
+          <t>Anosmia, acute COVID-19, n = 62</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>no anosmia @V0, n = 83</t>
+          <t>no anosmia, acute COVID-19, n = 83</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5828,17 +5828,17 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Impaired performance @V0, n = 132</t>
+          <t>Impaired performance, acute COVID-19, n = 132</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>no impaired performance @V0, n = 13</t>
+          <t>no impaired performance, acute COVID-19, n = 13</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -5860,17 +5860,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Sleep disorders @V0, n = 56</t>
+          <t>Sleep disorders, acute COVID-19, n = 56</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>no sleep disorders @V0, n = 88</t>
+          <t>no sleep disorders, acute COVID-19, n = 88</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5892,17 +5892,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Anti-infectives @V0, n = 78</t>
+          <t>Anti-infectives, acute COVID-19, n = 78</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>no anti-infectives @V0, n = 67</t>
+          <t>no anti-infectives, acute COVID-19, n = 67</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -5924,17 +5924,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Anti-platelet @V0, n = 22</t>
+          <t>Anti-platelet, acute COVID-19, n = 22</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>no anti-platelet @V0, n = 123</t>
+          <t>no anti-platelet, acute COVID-19, n = 123</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5956,17 +5956,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Anti-coagulatives @V0, n = 9</t>
+          <t>Anti-coagulatives, acute COVID-19, n = 9</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>no anti-coagulatives @V0, n = 136</t>
+          <t>no anti-coagulatives, acute COVID-19, n = 136</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -5988,17 +5988,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Immunosuppression @V0, n = 27</t>
+          <t>Immunosuppression, acute COVID-19, n = 27</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>no immunosuppression @V0, n = 118</t>
+          <t>no immunosuppression, acute COVID-19, n = 118</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -6020,17 +6020,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Anemia @V1, n = 16</t>
+          <t>Anemia, 60-day visit, n = 16</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>no anemia @V1, n = 129</t>
+          <t>no anemia, 60-day visit, n = 129</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -6052,17 +6052,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Elevated ferritin @V1, n = 26</t>
+          <t>Elevated ferritin, 60-day visit, n = 26</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>no elevated ferritin @V1, n = 118</t>
+          <t>no elevated ferritin, 60-day visit, n = 118</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -6084,17 +6084,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Elevated NTproBNP @V1, n = 52</t>
+          <t>Elevated NTproBNP, 60-day visit, n = 52</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>no elevated NTproBNP @V1, n = 93</t>
+          <t>no elevated NTproBNP, 60-day visit, n = 93</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -6116,17 +6116,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Elevated D-dimer @V1, n = 60</t>
+          <t>Elevated D-dimer, 60-day visit, n = 60</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>no elevated D-dimer @V1, n = 85</t>
+          <t>no elevated D-dimer, 60-day visit, n = 85</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -6148,17 +6148,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Elevated CRP @V1, n = 23</t>
+          <t>Elevated CRP, 60-day visit, n = 23</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>no elevated CRP @V1, n = 122</t>
+          <t>no elevated CRP, 60-day visit, n = 122</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -6180,17 +6180,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Elevated IL-6 @V1, n = 17</t>
+          <t>Elevated IL-6, 60-day visit, n = 17</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>no elevated IL-6 @V1, n = 128</t>
+          <t>no elevated IL-6, 60-day visit, n = 128</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -6212,17 +6212,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Iron deficiency @V1, n = 6</t>
+          <t>Iron deficiency, 60-day visit, n = 6</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>no iron deficiency @V1, n = 138</t>
+          <t>no iron deficiency, 60-day visit, n = 138</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -6244,7 +6244,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -6276,17 +6276,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Hospitalized &gt;7 days @V0, n = 80</t>
+          <t>Hospitalized &gt;7 days, acute COVID-19, n = 80</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>no hospitalized &gt;7 days @V0, n = 65</t>
+          <t>no hospitalized &gt;7 days, acute COVID-19, n = 65</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -6308,7 +6308,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -6340,7 +6340,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -6372,7 +6372,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -6404,17 +6404,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>&gt;6 symptoms @V0, n = 42</t>
+          <t>&gt;6 symptoms, acute COVID-19, n = 42</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>no &gt;6 symptoms @V0, n = 103</t>
+          <t>no &gt;6 symptoms, acute COVID-19, n = 103</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -6436,17 +6436,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Persistent symptoms @V1, n = 115</t>
+          <t>Persistent symptoms, 60-day visit, n = 115</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>no persistent symptoms @V1, n = 30</t>
+          <t>no persistent symptoms, 60-day visit, n = 30</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -6468,17 +6468,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Anti-S1/S2 IgG Q1 @V1, n = 34</t>
+          <t>Anti-S1/S2 IgG Q1, 60-day visit, n = 34</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>no anti-S1/S2 IgG Q1 @V1, n = 100</t>
+          <t>no anti-S1/S2 IgG Q1, 60-day visit, n = 100</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -6500,17 +6500,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Anti-S1/S2 IgG Q2 @V1, n = 33</t>
+          <t>Anti-S1/S2 IgG Q2, 60-day visit, n = 33</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>no anti-S1/S2 IgG Q2 @V1, n = 101</t>
+          <t>no anti-S1/S2 IgG Q2, 60-day visit, n = 101</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -6532,17 +6532,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Anti-S1/S2 IgG Q3 @V1, n = 34</t>
+          <t>Anti-S1/S2 IgG Q3, 60-day visit, n = 34</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>no anti-S1/S2 IgG Q3 @V1, n = 100</t>
+          <t>no anti-S1/S2 IgG Q3, 60-day visit, n = 100</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -6564,17 +6564,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Anti-S1/S2 IgG Q4 @V1, n = 33</t>
+          <t>Anti-S1/S2 IgG Q4, 60-day visit, n = 33</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>no anti-S1/S2 IgG Q4 @V1, n = 101</t>
+          <t>no anti-S1/S2 IgG Q4, 60-day visit, n = 101</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -6596,17 +6596,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Ambulatory @V0, n = 36</t>
+          <t>Ambulatory, acute COVID-19, n = 36</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>no ambulatory @V0, n = 109</t>
+          <t>no ambulatory, acute COVID-19, n = 109</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -6628,17 +6628,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Hospitalized @V0, n = 37</t>
+          <t>Hospitalized, acute COVID-19, n = 37</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>no hospitalized @V0, n = 108</t>
+          <t>no hospitalized, acute COVID-19, n = 108</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -6660,17 +6660,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Oxygen therapy @V0, n = 40</t>
+          <t>Oxygen therapy, acute COVID-19, n = 40</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>no oxygen therapy @V0, n = 105</t>
+          <t>no oxygen therapy, acute COVID-19, n = 105</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -6692,17 +6692,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ICU @V0, n = 32</t>
+          <t>ICU, acute COVID-19, n = 32</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>no iCU @V0, n = 113</t>
+          <t>no iCU, acute COVID-19, n = 113</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -6724,7 +6724,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -6756,7 +6756,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -6788,7 +6788,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -6820,7 +6820,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -6852,7 +6852,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -6884,7 +6884,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -6916,7 +6916,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -6948,7 +6948,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -6980,7 +6980,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -7012,7 +7012,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -7044,7 +7044,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -7076,7 +7076,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -7108,7 +7108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -7140,7 +7140,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -7172,7 +7172,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -7204,7 +7204,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -7236,17 +7236,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Weight loss @V0, n = 91</t>
+          <t>Weight loss, acute COVID-19, n = 91</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>no weight loss @V0, n = 31</t>
+          <t>no weight loss, acute COVID-19, n = 31</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -7268,17 +7268,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Dyspnea @V0, n = 82</t>
+          <t>Dyspnea, acute COVID-19, n = 82</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>no dyspnea @V0, n = 40</t>
+          <t>no dyspnea, acute COVID-19, n = 40</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -7300,17 +7300,17 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Cough @V0, n = 88</t>
+          <t>Cough, acute COVID-19, n = 88</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>no cough @V0, n = 34</t>
+          <t>no cough, acute COVID-19, n = 34</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -7332,17 +7332,17 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Fever @V0, n = 92</t>
+          <t>Fever, acute COVID-19, n = 92</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>no fever @V0, n = 30</t>
+          <t>no fever, acute COVID-19, n = 30</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -7364,17 +7364,17 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Night sweat @V0, n = 79</t>
+          <t>Night sweat, acute COVID-19, n = 79</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>no night sweat @V0, n = 43</t>
+          <t>no night sweat, acute COVID-19, n = 43</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -7396,17 +7396,17 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Pain @V0, n = 65</t>
+          <t>Pain, acute COVID-19, n = 65</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>no pain @V0, n = 57</t>
+          <t>no pain, acute COVID-19, n = 57</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -7428,17 +7428,17 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>GI symptoms @V0, n = 46</t>
+          <t>GI symptoms, acute COVID-19, n = 46</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>no gI symptoms @V0, n = 76</t>
+          <t>no gI symptoms, acute COVID-19, n = 76</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -7460,17 +7460,17 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Anosmia @V0, n = 51</t>
+          <t>Anosmia, acute COVID-19, n = 51</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>no anosmia @V0, n = 71</t>
+          <t>no anosmia, acute COVID-19, n = 71</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -7492,17 +7492,17 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Impaired performance @V0, n = 111</t>
+          <t>Impaired performance, acute COVID-19, n = 111</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>no impaired performance @V0, n = 11</t>
+          <t>no impaired performance, acute COVID-19, n = 11</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -7524,17 +7524,17 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Sleep disorders @V0, n = 46</t>
+          <t>Sleep disorders, acute COVID-19, n = 46</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>no sleep disorders @V0, n = 75</t>
+          <t>no sleep disorders, acute COVID-19, n = 75</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -7556,17 +7556,17 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Anti-infectives @V0, n = 63</t>
+          <t>Anti-infectives, acute COVID-19, n = 63</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>no anti-infectives @V0, n = 59</t>
+          <t>no anti-infectives, acute COVID-19, n = 59</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -7588,17 +7588,17 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Anti-platelet @V0, n = 17</t>
+          <t>Anti-platelet, acute COVID-19, n = 17</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>no anti-platelet @V0, n = 105</t>
+          <t>no anti-platelet, acute COVID-19, n = 105</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -7620,17 +7620,17 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Anti-coagulatives @V0, n = 7</t>
+          <t>Anti-coagulatives, acute COVID-19, n = 7</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>no anti-coagulatives @V0, n = 115</t>
+          <t>no anti-coagulatives, acute COVID-19, n = 115</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -7652,17 +7652,17 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Immunosuppression @V0, n = 22</t>
+          <t>Immunosuppression, acute COVID-19, n = 22</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>no immunosuppression @V0, n = 100</t>
+          <t>no immunosuppression, acute COVID-19, n = 100</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -7684,17 +7684,17 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Anemia @V1, n = 11</t>
+          <t>Anemia, 60-day visit, n = 11</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>no anemia @V1, n = 111</t>
+          <t>no anemia, 60-day visit, n = 111</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -7716,17 +7716,17 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Elevated ferritin @V1, n = 21</t>
+          <t>Elevated ferritin, 60-day visit, n = 21</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>no elevated ferritin @V1, n = 100</t>
+          <t>no elevated ferritin, 60-day visit, n = 100</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -7748,17 +7748,17 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Elevated NTproBNP @V1, n = 44</t>
+          <t>Elevated NTproBNP, 60-day visit, n = 44</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>no elevated NTproBNP @V1, n = 78</t>
+          <t>no elevated NTproBNP, 60-day visit, n = 78</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -7780,17 +7780,17 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Elevated D-dimer @V1, n = 50</t>
+          <t>Elevated D-dimer, 60-day visit, n = 50</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>no elevated D-dimer @V1, n = 72</t>
+          <t>no elevated D-dimer, 60-day visit, n = 72</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -7812,17 +7812,17 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Elevated CRP @V1, n = 17</t>
+          <t>Elevated CRP, 60-day visit, n = 17</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>no elevated CRP @V1, n = 105</t>
+          <t>no elevated CRP, 60-day visit, n = 105</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -7844,17 +7844,17 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Elevated IL-6 @V1, n = 9</t>
+          <t>Elevated IL-6, 60-day visit, n = 9</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>no elevated IL-6 @V1, n = 113</t>
+          <t>no elevated IL-6, 60-day visit, n = 113</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -7876,17 +7876,17 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Iron deficiency @V1, n = 6</t>
+          <t>Iron deficiency, 60-day visit, n = 6</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>no iron deficiency @V1, n = 115</t>
+          <t>no iron deficiency, 60-day visit, n = 115</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -7908,7 +7908,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -7940,17 +7940,17 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Hospitalized &gt;7 days @V0, n = 66</t>
+          <t>Hospitalized &gt;7 days, acute COVID-19, n = 66</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>no hospitalized &gt;7 days @V0, n = 56</t>
+          <t>no hospitalized &gt;7 days, acute COVID-19, n = 56</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -7972,7 +7972,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -8004,7 +8004,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -8036,7 +8036,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -8068,17 +8068,17 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>&gt;6 symptoms @V0, n = 34</t>
+          <t>&gt;6 symptoms, acute COVID-19, n = 34</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>no &gt;6 symptoms @V0, n = 88</t>
+          <t>no &gt;6 symptoms, acute COVID-19, n = 88</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -8100,17 +8100,17 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Persistent symptoms @V1, n = 96</t>
+          <t>Persistent symptoms, 60-day visit, n = 96</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>no persistent symptoms @V1, n = 26</t>
+          <t>no persistent symptoms, 60-day visit, n = 26</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -8132,17 +8132,17 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Anti-S1/S2 IgG Q1 @V1, n = 28</t>
+          <t>Anti-S1/S2 IgG Q1, 60-day visit, n = 28</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>no anti-S1/S2 IgG Q1 @V1, n = 84</t>
+          <t>no anti-S1/S2 IgG Q1, 60-day visit, n = 84</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -8164,17 +8164,17 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Anti-S1/S2 IgG Q2 @V1, n = 27</t>
+          <t>Anti-S1/S2 IgG Q2, 60-day visit, n = 27</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>no anti-S1/S2 IgG Q2 @V1, n = 85</t>
+          <t>no anti-S1/S2 IgG Q2, 60-day visit, n = 85</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -8196,17 +8196,17 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Anti-S1/S2 IgG Q3 @V1, n = 28</t>
+          <t>Anti-S1/S2 IgG Q3, 60-day visit, n = 28</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>no anti-S1/S2 IgG Q3 @V1, n = 84</t>
+          <t>no anti-S1/S2 IgG Q3, 60-day visit, n = 84</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -8228,17 +8228,17 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Anti-S1/S2 IgG Q4 @V1, n = 29</t>
+          <t>Anti-S1/S2 IgG Q4, 60-day visit, n = 29</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>no anti-S1/S2 IgG Q4 @V1, n = 83</t>
+          <t>no anti-S1/S2 IgG Q4, 60-day visit, n = 83</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -8260,17 +8260,17 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Ambulatory @V0, n = 32</t>
+          <t>Ambulatory, acute COVID-19, n = 32</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>no ambulatory @V0, n = 90</t>
+          <t>no ambulatory, acute COVID-19, n = 90</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -8292,17 +8292,17 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Hospitalized @V0, n = 32</t>
+          <t>Hospitalized, acute COVID-19, n = 32</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>no hospitalized @V0, n = 90</t>
+          <t>no hospitalized, acute COVID-19, n = 90</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -8324,17 +8324,17 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Oxygen therapy @V0, n = 32</t>
+          <t>Oxygen therapy, acute COVID-19, n = 32</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>no oxygen therapy @V0, n = 90</t>
+          <t>no oxygen therapy, acute COVID-19, n = 90</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -8356,17 +8356,17 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ICU @V0, n = 26</t>
+          <t>ICU, acute COVID-19, n = 26</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>no iCU @V0, n = 96</t>
+          <t>no iCU, acute COVID-19, n = 96</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -8418,7 +8418,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Male sex, CVD, Hypertension, Metabolic disorders, Anti-infectives @V0, Elevated NTproBNP @V1, Elevated D-dimer @V1, Hospitalized &gt;7 days @V0, &gt;3 comorbidities, Overweight or obesity</t>
+          <t>Male sex, CVD, Hypertension, Metabolic disorders, Anti-infectives, acute COVID-19, Elevated NTproBNP, 60-day visit, Elevated D-dimer, 60-day visit, Hospitalized &gt;7 days, acute COVID-19, &gt;3 comorbidities, Overweight or obesity</t>
         </is>
       </c>
     </row>
@@ -8430,7 +8430,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Obesity, Current smoker, Ex-smoker, PD, COPD, Asthma, Hypercholesterolemia, Diabetes, CKD, GITD, Malignancy, Immune deficiency, GI symptoms @V0, Anosmia @V0, Sleep disorders @V0, Anti-platelet @V0, Anti-coagulatives @V0, Immunosuppression @V0, Anemia @V1, Elevated ferritin @V1, Elevated CRP @V1, Elevated IL-6 @V1, Iron deficiency @V1, Age over 65, &gt;6 symptoms @V0, Anti-S1/S2 IgG Q1 @V1, Anti-S1/S2 IgG Q2 @V1, Anti-S1/S2 IgG Q3 @V1, Anti-S1/S2 IgG Q4 @V1, Ambulatory @V0, Hospitalized @V0, Oxygen therapy @V0, ICU @V0, CT Severity Score @V3 1 – 5, CT Severity Score @V3 &gt; 5, Lung function imp. @V3</t>
+          <t>Obesity, Current smoker, Ex-smoker, PD, COPD, Asthma, Hypercholesterolemia, Diabetes, CKD, GITD, Malignancy, Immune deficiency, GI symptoms, acute COVID-19, Anosmia, acute COVID-19, Sleep disorders, acute COVID-19, Anti-platelet, acute COVID-19, Anti-coagulatives, acute COVID-19, Immunosuppression, acute COVID-19, Anemia, 60-day visit, Elevated ferritin, 60-day visit, Elevated CRP, 60-day visit, Elevated IL-6, 60-day visit, Iron deficiency, 60-day visit, Age over 65, &gt;6 symptoms, acute COVID-19, Anti-S1/S2 IgG Q1, 60-day visit, Anti-S1/S2 IgG Q2, 60-day visit, Anti-S1/S2 IgG Q3, 60-day visit, Anti-S1/S2 IgG Q4, 60-day visit, Ambulatory, acute COVID-19, Hospitalized, acute COVID-19, Oxygen therapy, acute COVID-19, ICU, acute COVID-19, CT Severity Score 1-5 at 180-day visit, CT Severity Score &gt;5 at 180-day visit, Lung function impairment at 180-day visit</t>
         </is>
       </c>
     </row>
@@ -8442,7 +8442,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Weight loss @V0, Dyspnea @V0, Cough @V0, Fever @V0, Night sweat @V0, Pain @V0, Impaired performance @V0, Any comorbidity, Persistent symptoms @V1, Symptoms present @V3</t>
+          <t>Weight loss, acute COVID-19, Dyspnea, acute COVID-19, Cough, acute COVID-19, Fever, acute COVID-19, Night sweat, acute COVID-19, Pain, acute COVID-19, Impaired performance, acute COVID-19, Any comorbidity, Persistent symptoms, 60-day visit, Symptoms at 180-day visit</t>
         </is>
       </c>
     </row>
@@ -8494,7 +8494,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -8526,7 +8526,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -8558,7 +8558,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -8590,7 +8590,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -8622,7 +8622,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -8654,7 +8654,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -8686,7 +8686,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -8718,7 +8718,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -8750,7 +8750,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -8782,7 +8782,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -8814,7 +8814,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -8846,7 +8846,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -8878,7 +8878,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -8910,7 +8910,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -8942,7 +8942,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -8974,7 +8974,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -9006,7 +9006,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -9038,7 +9038,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -9070,7 +9070,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -9102,7 +9102,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -9134,7 +9134,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -9166,7 +9166,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -9198,7 +9198,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -9230,7 +9230,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -9327,7 +9327,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -9352,34 +9352,34 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.86 [0.67 - 1]</t>
+          <t>0.72 [0.36 - 1]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.37 [-0.2 - 1]</t>
+          <t>0.43 [-0.35 - 1]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -9389,7 +9389,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -9404,34 +9404,34 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -9441,7 +9441,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -9456,34 +9456,34 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.88 [0.81 - 0.96]</t>
+          <t>0.78 [0.63 - 0.93]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.51 [0.044 - 0.89]</t>
+          <t>0.55 [0.26 - 0.85]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>0.75</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -9493,7 +9493,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -9508,34 +9508,34 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.98</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -9545,7 +9545,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -9560,34 +9560,34 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.84 [0.6 - 1]</t>
+          <t>0.71 [0.3 - 1]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.34 [-0.25 - 1]</t>
+          <t>0.42 [-0.52 - 1]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.72</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -9597,7 +9597,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -9612,22 +9612,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -9639,7 +9639,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -9649,7 +9649,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -9664,34 +9664,34 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.79 [0.5 - 1]</t>
+          <t>0.67 [0.26 - 1]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.31 [-0.29 - 1]</t>
+          <t>0.35 [-0.38 - 1]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.64</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -9701,7 +9701,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -9716,34 +9716,34 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.57</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -9753,7 +9753,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -9768,34 +9768,34 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.84 [0.6 - 1]</t>
+          <t>0.73 [0.4 - 1]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.34 [-0.25 - 1]</t>
+          <t>0.45 [-0.33 - 1]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -9805,7 +9805,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -9847,7 +9847,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -9872,34 +9872,34 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.87 [0.63 - 1]</t>
+          <t>0.75 [0.4 - 1]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.43 [-0.23 - 1]</t>
+          <t>0.51 [-0.25 - 1]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.73</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -9924,34 +9924,34 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.87</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -9976,34 +9976,34 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.72 [0.36 - 1]</t>
+          <t>0.86 [0.67 - 1]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.43 [-0.35 - 1]</t>
+          <t>0.37 [-0.2 - 1]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.98</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -10028,34 +10028,34 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.98</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -10065,7 +10065,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -10080,34 +10080,34 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.78 [0.63 - 0.93]</t>
+          <t>0.88 [0.81 - 0.96]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.55 [0.26 - 0.85]</t>
+          <t>0.51 [0.044 - 0.89]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.98</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -10117,7 +10117,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -10132,34 +10132,34 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.99</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -10169,7 +10169,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -10184,34 +10184,34 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.71 [0.3 - 1]</t>
+          <t>0.84 [0.6 - 1]</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.42 [-0.52 - 1]</t>
+          <t>0.34 [-0.25 - 1]</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.94</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -10221,7 +10221,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -10236,22 +10236,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -10263,7 +10263,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -10273,7 +10273,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -10288,34 +10288,34 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.67 [0.26 - 1]</t>
+          <t>0.79 [0.5 - 1]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.35 [-0.38 - 1]</t>
+          <t>0.31 [-0.29 - 1]</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.87</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -10325,7 +10325,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -10340,34 +10340,34 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>0.57</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -10377,7 +10377,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -10392,34 +10392,34 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.73 [0.4 - 1]</t>
+          <t>0.84 [0.6 - 1]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.45 [-0.33 - 1]</t>
+          <t>0.34 [-0.25 - 1]</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.95</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -10429,7 +10429,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -10471,7 +10471,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -10481,7 +10481,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -10496,34 +10496,34 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.75 [0.4 - 1]</t>
+          <t>0.87 [0.63 - 1]</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.51 [-0.25 - 1]</t>
+          <t>0.43 [-0.23 - 1]</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.97</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -10548,34 +10548,34 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -10627,7 +10627,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -10679,7 +10679,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -10731,7 +10731,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -10783,7 +10783,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -10835,7 +10835,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -10887,7 +10887,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -10939,7 +10939,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -10991,7 +10991,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -11043,7 +11043,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -11095,7 +11095,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -11147,7 +11147,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -11199,7 +11199,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -11251,7 +11251,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -11303,7 +11303,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -11355,7 +11355,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -11407,7 +11407,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -11459,7 +11459,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -11511,7 +11511,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -11563,7 +11563,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -11615,7 +11615,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -11667,7 +11667,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -11719,7 +11719,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -11771,7 +11771,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -11883,7 +11883,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -11930,7 +11930,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -11977,7 +11977,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -12024,7 +12024,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -12071,7 +12071,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -12118,7 +12118,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -12165,7 +12165,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -12212,7 +12212,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -12259,7 +12259,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -12306,7 +12306,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -12353,7 +12353,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -12400,7 +12400,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -12447,7 +12447,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -12494,7 +12494,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -12541,7 +12541,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -12588,7 +12588,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -12635,7 +12635,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -12682,7 +12682,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -12729,7 +12729,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -12776,7 +12776,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -12823,7 +12823,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -12870,7 +12870,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -12917,7 +12917,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -12964,7 +12964,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -13011,7 +13011,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -13058,7 +13058,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -13105,7 +13105,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -13152,7 +13152,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -13199,7 +13199,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -13246,7 +13246,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -13293,7 +13293,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -13340,7 +13340,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -13387,7 +13387,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -13434,7 +13434,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -13481,7 +13481,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -13528,7 +13528,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -13575,7 +13575,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -13622,7 +13622,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -13669,7 +13669,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -13716,7 +13716,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -13763,7 +13763,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -13810,7 +13810,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -13857,7 +13857,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -13904,7 +13904,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -13951,7 +13951,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -13998,7 +13998,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -14045,7 +14045,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -14092,7 +14092,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -14139,7 +14139,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -14186,7 +14186,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -14233,7 +14233,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -14280,7 +14280,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -14327,7 +14327,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -14374,7 +14374,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -14421,7 +14421,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -14468,7 +14468,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -14515,7 +14515,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -14562,7 +14562,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -14609,7 +14609,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -14656,7 +14656,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -14703,7 +14703,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -14750,7 +14750,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -14797,7 +14797,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -14844,7 +14844,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -14891,7 +14891,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -14938,7 +14938,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -14985,7 +14985,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -15032,7 +15032,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -15079,7 +15079,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -15126,7 +15126,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -15173,7 +15173,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -15220,7 +15220,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -15267,7 +15267,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -15314,7 +15314,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -15361,7 +15361,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -15408,7 +15408,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -15455,7 +15455,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -15502,7 +15502,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -15549,7 +15549,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -15596,7 +15596,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -15643,7 +15643,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -15690,7 +15690,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -15737,7 +15737,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -15784,7 +15784,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -15831,7 +15831,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -15878,7 +15878,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -15925,7 +15925,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -15972,7 +15972,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -16019,7 +16019,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -16066,7 +16066,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CT abnormalities @V3</t>
+          <t>CT abnormalities at 180-day visit</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -16113,7 +16113,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -16160,7 +16160,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -16207,7 +16207,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -16254,7 +16254,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -16301,7 +16301,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -16348,7 +16348,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -16395,7 +16395,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -16442,7 +16442,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -16489,7 +16489,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -16536,7 +16536,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -16583,7 +16583,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -16630,7 +16630,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -16677,7 +16677,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -16724,7 +16724,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -16771,7 +16771,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -16818,7 +16818,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -16865,7 +16865,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -16912,7 +16912,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>CT Severity Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5 at 180-day visit</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -16959,7 +16959,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -17006,7 +17006,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -17053,7 +17053,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -17100,7 +17100,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -17147,7 +17147,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -17194,7 +17194,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -17241,7 +17241,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -17288,7 +17288,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -17335,7 +17335,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -17382,7 +17382,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -17429,7 +17429,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -17476,7 +17476,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -17523,7 +17523,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -17570,7 +17570,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -17617,7 +17617,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -17664,7 +17664,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -17711,7 +17711,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -17758,7 +17758,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Symptoms present @V3</t>
+          <t>Symptoms at 180-day visit</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -17805,7 +17805,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -17852,7 +17852,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -17899,7 +17899,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -17946,7 +17946,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -17993,7 +17993,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -18040,7 +18040,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -18087,7 +18087,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -18134,7 +18134,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -18181,7 +18181,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -18228,7 +18228,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -18275,7 +18275,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -18322,7 +18322,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -18369,7 +18369,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -18416,7 +18416,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -18463,7 +18463,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -18510,7 +18510,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -18557,7 +18557,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -18604,7 +18604,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Lung function impairment @V3</t>
+          <t>Lung function impairment at 180-day visit</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
